--- a/solutions/Experiment_3.xlsx
+++ b/solutions/Experiment_3.xlsx
@@ -491,25 +491,25 @@
         <v>1851</v>
       </c>
       <c r="D2" t="n">
-        <v>1851.000000000001</v>
+        <v>1851</v>
       </c>
       <c r="E2" t="n">
-        <v>-86.18910475446648</v>
+        <v>-145.041032870817</v>
       </c>
       <c r="F2" t="n">
-        <v>3.13443327150249</v>
+        <v>3.63085256362692</v>
       </c>
       <c r="G2" t="n">
-        <v>-5.400124791776761e-13</v>
+        <v>-2.842170943040401e-14</v>
       </c>
       <c r="H2" t="n">
-        <v>-3.660716174636036e-11</v>
+        <v>-2.046363078989089e-12</v>
       </c>
       <c r="I2" t="n">
-        <v>0.8608659344603289</v>
+        <v>0.9089363778956003</v>
       </c>
       <c r="J2" t="n">
-        <v>0.741090157114255</v>
+        <v>0.826165339061976</v>
       </c>
     </row>
   </sheetData>
